--- a/data/trans_bre/P23_7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_7_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>73,33%</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>-16,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,42%</t>
+          <t>-17,24%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>54,57%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 10,39</t>
+          <t>-10,74; 5,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 5,52</t>
+          <t>-12,88; 7,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 8,69</t>
+          <t>-11,57; 13,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-14,49; 11,11</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-89,81; 534,43</t>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,39</t>
+          <t>-11,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>131,25%</t>
+          <t>-10,89</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-68,71%</t>
         </is>
       </c>
     </row>
@@ -722,30 +768,40 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,02</t>
+          <t>0,0; 8,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 0,0</t>
+          <t>-41,26; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,96</t>
+          <t>1,41; 12,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-46,36; 4,55</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-8,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,48%</t>
+          <t>-7,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-64,12%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-30,74%</t>
+          <t>-59,9%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-62,1%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-69,71%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 5,02</t>
+          <t>-7,18; 6,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 0,48</t>
+          <t>-14,32; 1,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 3,7</t>
+          <t>-20,17; 0,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-72,92; 221,46</t>
+          <t>-17,91; 0,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 28,55</t>
+          <t>-84,78; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-78,44; 109,84</t>
+          <t>-100,0; 143,22</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-90,43; 40,59</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-96,39; 58,76</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>106,62%</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>656,17%</t>
+          <t>341,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>104,96%</t>
+          <t>836,93%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>131,97%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>121,83%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 9,44</t>
+          <t>1,51; 15,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 14,77</t>
+          <t>4,5; 18,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 9,16</t>
+          <t>-1,85; 11,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 764,45</t>
+          <t>-0,97; 15,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,2; —</t>
+          <t>-26,38; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 591,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-45,26; 1051,3</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-22,71; 679,18</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-8,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>12,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,64%</t>
+          <t>37,63%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>133,14%</t>
+          <t>-65,04%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>92,57%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>271,51%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 8,51</t>
+          <t>-6,4; 11,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 6,78</t>
+          <t>-30,59; 3,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 15,83</t>
+          <t>-4,25; 16,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-56,47; 184,42</t>
+          <t>2,31; 26,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-86,21; 170,55</t>
+          <t>-80,4; 669,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 485,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-63,18; 948,06</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-31,13; 1839,95</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,34</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>87,88%</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-59,86%</t>
+          <t>322,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>64,59%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20,88%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>95,25%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 17,61</t>
+          <t>-0,45; 20,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 1,82</t>
+          <t>-15,06; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 10,31</t>
+          <t>-7,96; 8,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,52; 682,59</t>
+          <t>-4,92; 18,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-93,39; 84,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,65; inf</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>42,75%</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-17,73%</t>
+          <t>105,47%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>42,28%</t>
+          <t>-38,3%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28,75%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,17%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,99</t>
+          <t>0,16; 6,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 1,88</t>
+          <t>-10,76; 1,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,79</t>
+          <t>-2,38; 4,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 133,49</t>
+          <t>-8,78; 4,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-58,88; 44,2</t>
+          <t>-1,83; 336,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 142,85</t>
+          <t>-76,58; 35,34</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-34,93; 156,68</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-62,44; 99,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P23_7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_7_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,171 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,98</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-16,81%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-17,24%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>54,57%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,16%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.809887210277486</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.3862322838629424</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.178769217050349</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.7258986012379385</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.314471115241808</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.06164359760154921</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.6677094999600207</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1246963396490783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,74; 5,5</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,88; 7,3</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,57; 13,43</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-14,49; 11,11</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.909395246909274</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-13.13848524728734</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.17236891590036</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-11.85789141453622</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>23.70162261888357</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.08882575870839</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>14.53890356127657</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.12331852222826</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-11,85</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,83</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-10,89</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-68,71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,46</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-41,26; 0,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 12,52</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-46,36; 4,55</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.715110652206902</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-10.17555995008411</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.698118477037093</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-12.16463870300213</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.7229479417009524</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,47</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-8,4</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,35</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,29%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-59,9%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-62,1%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-69,71%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-37.01052169275905</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.40458336888638</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-47.9400519947981</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,18; 6,69</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-14,32; 1,96</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-20,17; 0,91</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-17,91; 0,62</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-84,78; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 143,22</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-90,43; 40,59</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-96,39; 58,76</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.766392766478518</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.29332092606658</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.56938171189342</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +799,193 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,88</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,46</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,6</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,18</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>341,92%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>836,93%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>131,97%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>121,83%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.6921333498100652</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.950375964223175</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-7.124600453556434</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-7.234752289503861</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.1383607065858657</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.5301212488753868</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.5565505473267585</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.6848836475523072</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,51; 15,15</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4,5; 18,03</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 11,37</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 15,97</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-26,38; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-45,26; 1051,3</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-22,71; 679,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.161388378594424</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.23810143659669</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-19.58098034620148</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-18.47810925139062</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8523042283307698</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.89211530925614</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.879858881605408</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.954697096106523</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.268727789331229</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.9237087607489333</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>6.641127920852169</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.941254287923297</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.4917230452620605</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.8153462780563275</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,11</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-8,04</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,81</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>12,09</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>37,63%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-65,04%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>92,57%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>271,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,4; 11,8</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-30,59; 3,24</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 16,51</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,31; 26,06</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-80,4; 669,82</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-63,18; 948,06</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-31,13; 1839,95</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>7.985565913936165</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>10.79750335434921</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.624033479216462</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.334665140748912</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.829980870077599</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>9.554152992768246</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.442420915167014</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.298578933705909</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,7</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-4,88</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,21</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>322,14%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>20,88%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>95,25%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.696461087780786</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>4.952062809850324</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.445176733659243</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.7740290755891543</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2809292705868153</v>
+      </c>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.4325903833367211</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2197111681113872</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 20,15</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-15,06; 0,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-7,96; 8,48</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-4,92; 18,46</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>15.48793947763064</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>18.47917347872106</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.19605777830121</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>15.61332056599765</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>11.00604215536006</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>6.923543762959925</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +993,277 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-2,79</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>105,47%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-38,3%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>28,75%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-1,17%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>2.960104928472102</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-8.384232025936598</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>5.541572641372576</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>11.19363804673273</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.5464809975322716</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.669636822503838</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>1.137744957440433</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>2.590583275484545</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 6,42</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-10,76; 1,22</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,38; 4,95</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-8,78; 4,81</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 336,83</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-76,58; 35,34</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-34,93; 156,68</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-62,44; 99,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-5.683484282912935</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-31.6764892328412</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-3.087498672879952</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>1.753433095720881</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.8013596908651237</v>
+      </c>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="n">
+        <v>-0.5774073930517362</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.3181257727520173</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>13.07798602119819</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.970234710263884</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>18.17120276952095</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>24.38128871955609</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>7.607548113389607</v>
+      </c>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="n">
+        <v>11.01849662405302</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>18.4446696331266</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>7.727413373743635</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-4.811632700540027</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.490292675194455</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>6.00056235780512</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>3.481995068433374</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.152492766247914</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>1.363989163208887</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-0.300256025235647</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-15.0338444269906</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-8.05228086867691</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-3.598485760919491</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>20.91645799640363</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>8.267303390007442</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>24.1641444081654</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>4.072732091026452</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-2.153158752720384</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.762136024039397</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-0.06019493052124431</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>1.408242648083727</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.3080654341883046</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.3655157804112663</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.006968489770600461</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.8831358306043159</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-9.140764315225242</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.019282095349106</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-8.862215029924718</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.1656684068378338</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.719016220936372</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.3081046450932581</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.6271658885474323</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>7.744900390049074</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.891777315800419</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.290090068375562</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>5.080432217902358</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>4.362916678343492</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.5373077821012067</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1.716312953362662</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.9968063840001707</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1271,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
